--- a/config_1.12/fish3d_config.xlsx
+++ b/config_1.12/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="429">
   <si>
     <t>line|行号</t>
   </si>
@@ -2507,6 +2507,10 @@
   </si>
   <si>
     <t>act_ty_by_drop_8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_9</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3193,7 +3197,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8877,7 +8881,7 @@
         <v>424</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G62" s="64" t="s">
         <v>427</v>

--- a/config_1.12/fish3d_config.xlsx
+++ b/config_1.12/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2498,10 +2498,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金牛boss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>18,19,20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2515,6 +2511,10 @@
   </si>
   <si>
     <t>act_ty_by_drop_9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑boss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3197,7 +3197,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8875,16 +8875,16 @@
         <v>423</v>
       </c>
       <c r="D62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="F62" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="G62" s="64" t="s">
         <v>426</v>
-      </c>
-      <c r="E62" s="53" t="s">
-        <v>424</v>
-      </c>
-      <c r="F62" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="G62" s="64" t="s">
-        <v>427</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>
@@ -8932,7 +8932,7 @@
         <v>0.1</v>
       </c>
       <c r="X62" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Y62" s="66" t="s">
         <v>342</v>
